--- a/交流管理/项目周报/韩旭周报.xlsx
+++ b/交流管理/项目周报/韩旭周报.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="108">
   <si>
     <t>完成率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,46 @@
   </si>
   <si>
     <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改发送消息接口文档bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api网关测试demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar_client和ar项目用例图，时序图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送link类型消息尝试使用外部链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用钉钉上传媒体文件接口返回media_id的demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,6 +532,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1895,15 +1936,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.375" customWidth="1"/>
@@ -2050,6 +2092,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="15">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>447</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
